--- a/example_output/csv_data/VMHS_swell.xlsx
+++ b/example_output/csv_data/VMHS_swell.xlsx
@@ -462,22 +462,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.99985183412196</v>
+        <v>0.9944742850342413</v>
       </c>
       <c r="D2">
-        <v>0.4203136368969185</v>
+        <v>0.3890498137830372</v>
       </c>
       <c r="E2">
-        <v>253</v>
+        <v>6472</v>
       </c>
       <c r="G2">
-        <v>0.99985183412196</v>
+        <v>0.9944742850342413</v>
       </c>
       <c r="H2">
-        <v>0.99985183412196</v>
+        <v>0.9944742850342413</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -497,22 +497,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.99985183412196</v>
+        <v>0.9944742850342413</v>
       </c>
       <c r="D3">
-        <v>0.3577027947246787</v>
+        <v>0.377549089447947</v>
       </c>
       <c r="E3">
-        <v>1060</v>
+        <v>22455</v>
       </c>
       <c r="G3">
-        <v>0.99985183412196</v>
+        <v>0.9944742850342413</v>
       </c>
       <c r="H3">
-        <v>0.99985183412196</v>
+        <v>0.9944742850342413</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -532,22 +532,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>1.033551858329709</v>
+        <v>1.0245686505422</v>
       </c>
       <c r="D4">
-        <v>0.3768724694462361</v>
+        <v>0.3882926943630165</v>
       </c>
       <c r="E4">
-        <v>1659</v>
+        <v>39413</v>
       </c>
       <c r="G4">
-        <v>1.033551858329709</v>
+        <v>1.0245686505422</v>
       </c>
       <c r="H4">
-        <v>1.033551858329709</v>
+        <v>1.0245686505422</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>1.115414381034441</v>
+        <v>1.095953832695546</v>
       </c>
       <c r="D5">
-        <v>0.4565837528021961</v>
+        <v>0.424663167767146</v>
       </c>
       <c r="E5">
-        <v>2152</v>
+        <v>51628</v>
       </c>
       <c r="G5">
-        <v>1.115414381034441</v>
+        <v>1.095953832695546</v>
       </c>
       <c r="H5">
-        <v>1.115414381034441</v>
+        <v>1.095953832695546</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -602,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>1.186403251581635</v>
+        <v>1.200717249825721</v>
       </c>
       <c r="D6">
-        <v>0.4786392832005431</v>
+        <v>0.472130940153532</v>
       </c>
       <c r="E6">
-        <v>2478</v>
+        <v>58564</v>
       </c>
       <c r="G6">
-        <v>1.186403251581635</v>
+        <v>1.200717249825721</v>
       </c>
       <c r="H6">
-        <v>1.186403251581635</v>
+        <v>1.200717249825721</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -637,22 +637,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>1.24062998072426</v>
+        <v>1.332475841731767</v>
       </c>
       <c r="D7">
-        <v>0.5103006762506302</v>
+        <v>0.5234074304936998</v>
       </c>
       <c r="E7">
-        <v>2680</v>
+        <v>56747</v>
       </c>
       <c r="G7">
-        <v>1.24062998072426</v>
+        <v>1.332475841731767</v>
       </c>
       <c r="H7">
-        <v>1.24062998072426</v>
+        <v>1.332475841731767</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -672,22 +672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.36770064143457</v>
+        <v>1.468285610671827</v>
       </c>
       <c r="D8">
-        <v>0.5770537312533761</v>
+        <v>0.5767764499089419</v>
       </c>
       <c r="E8">
-        <v>2462</v>
+        <v>48040</v>
       </c>
       <c r="G8">
-        <v>1.36770064143457</v>
+        <v>1.468285610671827</v>
       </c>
       <c r="H8">
-        <v>1.36770064143457</v>
+        <v>1.468285610671827</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -707,22 +707,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.467063094058574</v>
+        <v>1.605404686788781</v>
       </c>
       <c r="D9">
-        <v>0.6041313492476487</v>
+        <v>0.6148787159507039</v>
       </c>
       <c r="E9">
-        <v>2331</v>
+        <v>34504</v>
       </c>
       <c r="G9">
-        <v>1.467063094058574</v>
+        <v>1.605404686788781</v>
       </c>
       <c r="H9">
-        <v>1.467063094058574</v>
+        <v>1.605404686788781</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -742,22 +742,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.556653661296654</v>
+        <v>1.676949465146121</v>
       </c>
       <c r="D10">
-        <v>0.6375301435125419</v>
+        <v>0.6101956158508542</v>
       </c>
       <c r="E10">
-        <v>1896</v>
+        <v>25550</v>
       </c>
       <c r="G10">
-        <v>1.556653661296654</v>
+        <v>1.676949465146121</v>
       </c>
       <c r="H10">
-        <v>1.556653661296654</v>
+        <v>1.676949465146121</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -777,22 +777,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.726406500287903</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="D11">
-        <v>0.6684143307968592</v>
+        <v>0.5758351757411148</v>
       </c>
       <c r="E11">
-        <v>1478</v>
+        <v>17463</v>
       </c>
       <c r="G11">
-        <v>1.726406500287903</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="H11">
-        <v>1.726406500287903</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.733301598328507</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="D12">
-        <v>0.638517475846327</v>
+        <v>0.499301247782178</v>
       </c>
       <c r="E12">
-        <v>1124</v>
+        <v>11024</v>
       </c>
       <c r="G12">
-        <v>1.733301598328507</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="H12">
-        <v>1.733301598328507</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -847,22 +847,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.733301598328507</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="D13">
-        <v>0.6044045692155636</v>
+        <v>0.457378816906263</v>
       </c>
       <c r="E13">
-        <v>925</v>
+        <v>6059</v>
       </c>
       <c r="G13">
-        <v>1.733301598328507</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="H13">
-        <v>1.733301598328507</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -882,22 +882,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.733301598328507</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="D14">
-        <v>0.5461507477166775</v>
+        <v>0.4437495018640769</v>
       </c>
       <c r="E14">
-        <v>676</v>
+        <v>2819</v>
       </c>
       <c r="G14">
-        <v>1.733301598328507</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="H14">
-        <v>1.733301598328507</v>
+        <v>1.681958843498328</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -917,22 +917,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.733301598328507</v>
+        <v>1.703523471053597</v>
       </c>
       <c r="D15">
-        <v>0.4402491285145451</v>
+        <v>0.4773917834007125</v>
       </c>
       <c r="E15">
-        <v>350</v>
+        <v>1203</v>
       </c>
       <c r="G15">
-        <v>1.733301598328507</v>
+        <v>1.703523471053597</v>
       </c>
       <c r="H15">
-        <v>1.733301598328507</v>
+        <v>1.703523471053597</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -952,22 +952,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>1.733301598328507</v>
+        <v>1.710727370386784</v>
       </c>
       <c r="D16">
-        <v>0.4742112514261312</v>
+        <v>0.4641666607221797</v>
       </c>
       <c r="E16">
-        <v>172</v>
+        <v>524</v>
       </c>
       <c r="G16">
-        <v>1.733301598328507</v>
+        <v>1.710727370386784</v>
       </c>
       <c r="H16">
-        <v>1.733301598328507</v>
+        <v>1.710727370386784</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -987,22 +987,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>1.733301598328507</v>
+        <v>1.710727370386784</v>
       </c>
       <c r="D17">
-        <v>0.3721361652058785</v>
+        <v>0.4268275010189134</v>
       </c>
       <c r="E17">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="G17">
-        <v>1.733301598328507</v>
+        <v>1.710727370386784</v>
       </c>
       <c r="H17">
-        <v>1.733301598328507</v>
+        <v>1.710727370386784</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1022,22 +1022,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>1.733301598328507</v>
+        <v>1.748001554170637</v>
       </c>
       <c r="D18">
-        <v>0.4150576249083556</v>
+        <v>0.5316054218805053</v>
       </c>
       <c r="E18">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>1.733301598328507</v>
+        <v>1.748001554170637</v>
       </c>
       <c r="H18">
-        <v>1.733301598328507</v>
+        <v>1.748001554170637</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1057,22 +1057,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>1.733301598328507</v>
+        <v>1.804892028628938</v>
       </c>
       <c r="D19">
-        <v>0.2424051086894622</v>
+        <v>0.5425308756380631</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19">
-        <v>1.733301598328507</v>
+        <v>1.804892028628938</v>
       </c>
       <c r="H19">
-        <v>1.733301598328507</v>
+        <v>1.804892028628938</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1092,22 +1092,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="C20">
-        <v>1.733301598328507</v>
+        <v>1.804892028628938</v>
       </c>
       <c r="D20">
-        <v>0.1948739654238093</v>
+        <v>0.4550582368224972</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>1.733301598328507</v>
+        <v>1.804892028628938</v>
       </c>
       <c r="H20">
-        <v>1.733301598328507</v>
+        <v>1.804892028628938</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1127,22 +1127,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="C21">
-        <v>1.733301598328507</v>
+        <v>1.804892028628938</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.0916740086870319</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>1.733301598328507</v>
+        <v>1.804892028628938</v>
       </c>
       <c r="H21">
-        <v>1.733301598328507</v>
+        <v>1.804892028628938</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1210,22 +1210,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.5307003578127498</v>
+        <v>0.7784717892808309</v>
       </c>
       <c r="D2">
-        <v>0.1218778536810442</v>
+        <v>0.3275257936872455</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>412</v>
       </c>
       <c r="G2">
-        <v>0.5307003578127498</v>
+        <v>0.7784717892808309</v>
       </c>
       <c r="H2">
-        <v>0.5307003578127498</v>
+        <v>0.7784717892808309</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1245,22 +1245,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.6828729880431444</v>
+        <v>0.7784717892808309</v>
       </c>
       <c r="D3">
-        <v>0.1968513868672396</v>
+        <v>0.2734102640743497</v>
       </c>
       <c r="E3">
-        <v>82</v>
+        <v>1756</v>
       </c>
       <c r="G3">
-        <v>0.6828729880431444</v>
+        <v>0.7784717892808309</v>
       </c>
       <c r="H3">
-        <v>0.6828729880431444</v>
+        <v>0.7784717892808309</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1280,22 +1280,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.7838026881172208</v>
+        <v>0.8471616869077379</v>
       </c>
       <c r="D4">
-        <v>0.2455044450708274</v>
+        <v>0.2937226220178856</v>
       </c>
       <c r="E4">
-        <v>216</v>
+        <v>3509</v>
       </c>
       <c r="G4">
-        <v>0.7838026881172208</v>
+        <v>0.8471616869077379</v>
       </c>
       <c r="H4">
-        <v>0.7838026881172208</v>
+        <v>0.8471616869077379</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1315,22 +1315,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.8251712868907582</v>
+        <v>0.9446631483135132</v>
       </c>
       <c r="D5">
-        <v>0.2651440869167908</v>
+        <v>0.3405268869843782</v>
       </c>
       <c r="E5">
-        <v>245</v>
+        <v>5283</v>
       </c>
       <c r="G5">
-        <v>0.8251712868907582</v>
+        <v>0.9446631483135132</v>
       </c>
       <c r="H5">
-        <v>0.8251712868907582</v>
+        <v>0.9446631483135132</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1350,22 +1350,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.8969493548048286</v>
+        <v>1.052381261632826</v>
       </c>
       <c r="D6">
-        <v>0.3082079928930611</v>
+        <v>0.3743318419777861</v>
       </c>
       <c r="E6">
-        <v>311</v>
+        <v>7071</v>
       </c>
       <c r="G6">
-        <v>0.8969493548048286</v>
+        <v>1.052381261632826</v>
       </c>
       <c r="H6">
-        <v>0.8969493548048286</v>
+        <v>1.052381261632826</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1385,22 +1385,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.9797137914160986</v>
+        <v>1.1832112862935</v>
       </c>
       <c r="D7">
-        <v>0.3905535399911191</v>
+        <v>0.4124210704112036</v>
       </c>
       <c r="E7">
-        <v>311</v>
+        <v>7662</v>
       </c>
       <c r="G7">
-        <v>0.9797137914160986</v>
+        <v>1.1832112862935</v>
       </c>
       <c r="H7">
-        <v>0.9797137914160986</v>
+        <v>1.1832112862935</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1420,22 +1420,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.107660829162449</v>
+        <v>1.33756155518074</v>
       </c>
       <c r="D8">
-        <v>0.4310245555412726</v>
+        <v>0.4497505615380897</v>
       </c>
       <c r="E8">
-        <v>256</v>
+        <v>6460</v>
       </c>
       <c r="G8">
-        <v>1.107660829162449</v>
+        <v>1.33756155518074</v>
       </c>
       <c r="H8">
-        <v>1.107660829162449</v>
+        <v>1.33756155518074</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1455,22 +1455,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.280560793834263</v>
+        <v>1.415013809770568</v>
       </c>
       <c r="D9">
-        <v>0.4386028581556466</v>
+        <v>0.4297810287353944</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>5102</v>
       </c>
       <c r="G9">
-        <v>1.280560793834263</v>
+        <v>1.415013809770568</v>
       </c>
       <c r="H9">
-        <v>1.280560793834263</v>
+        <v>1.415013809770568</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1490,22 +1490,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.370728461085127</v>
+        <v>1.475248411225618</v>
       </c>
       <c r="D10">
-        <v>0.4401772006843527</v>
+        <v>0.4152732629846997</v>
       </c>
       <c r="E10">
-        <v>210</v>
+        <v>3625</v>
       </c>
       <c r="G10">
-        <v>1.370728461085127</v>
+        <v>1.475248411225618</v>
       </c>
       <c r="H10">
-        <v>1.370728461085127</v>
+        <v>1.475248411225618</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1525,22 +1525,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.457125914190641</v>
+        <v>1.517725358076785</v>
       </c>
       <c r="D11">
-        <v>0.3973552906866679</v>
+        <v>0.4020346314095991</v>
       </c>
       <c r="E11">
-        <v>169</v>
+        <v>2475</v>
       </c>
       <c r="G11">
-        <v>1.457125914190641</v>
+        <v>1.517725358076785</v>
       </c>
       <c r="H11">
-        <v>1.457125914190641</v>
+        <v>1.517725358076785</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1560,22 +1560,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.552440173398963</v>
+        <v>1.581817455543297</v>
       </c>
       <c r="D12">
-        <v>0.4192626463938663</v>
+        <v>0.3815413488252077</v>
       </c>
       <c r="E12">
-        <v>105</v>
+        <v>1505</v>
       </c>
       <c r="G12">
-        <v>1.552440173398963</v>
+        <v>1.581817455543297</v>
       </c>
       <c r="H12">
-        <v>1.552440173398963</v>
+        <v>1.581817455543297</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1595,22 +1595,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.663469532110805</v>
+        <v>1.627062895791156</v>
       </c>
       <c r="D13">
-        <v>0.4576035888087107</v>
+        <v>0.4094971586271202</v>
       </c>
       <c r="E13">
-        <v>110</v>
+        <v>809</v>
       </c>
       <c r="G13">
-        <v>1.663469532110805</v>
+        <v>1.627062895791156</v>
       </c>
       <c r="H13">
-        <v>1.663469532110805</v>
+        <v>1.627062895791156</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1630,22 +1630,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.663469532110805</v>
+        <v>1.705681755654819</v>
       </c>
       <c r="D14">
-        <v>0.5053981217967924</v>
+        <v>0.4746064402955645</v>
       </c>
       <c r="E14">
-        <v>92</v>
+        <v>357</v>
       </c>
       <c r="G14">
-        <v>1.663469532110805</v>
+        <v>1.705681755654819</v>
       </c>
       <c r="H14">
-        <v>1.663469532110805</v>
+        <v>1.705681755654819</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1665,22 +1665,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.663469532110805</v>
+        <v>1.7720021873531</v>
       </c>
       <c r="D15">
-        <v>0.4667256452360834</v>
+        <v>0.5321604474047894</v>
       </c>
       <c r="E15">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="G15">
-        <v>1.663469532110805</v>
+        <v>1.7720021873531</v>
       </c>
       <c r="H15">
-        <v>1.663469532110805</v>
+        <v>1.7720021873531</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1700,22 +1700,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>1.829604118322194</v>
+        <v>1.7720021873531</v>
       </c>
       <c r="D16">
-        <v>0.5259990843423523</v>
+        <v>0.461590824695153</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="G16">
-        <v>1.829604118322194</v>
+        <v>1.7720021873531</v>
       </c>
       <c r="H16">
-        <v>1.829604118322194</v>
+        <v>1.7720021873531</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1735,22 +1735,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>1.829604118322194</v>
+        <v>1.868961890335277</v>
       </c>
       <c r="D17">
-        <v>0.3894489696261336</v>
+        <v>0.5333375154653059</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G17">
-        <v>1.829604118322194</v>
+        <v>1.868961890335277</v>
       </c>
       <c r="H17">
-        <v>1.829604118322194</v>
+        <v>1.868961890335277</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1770,22 +1770,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>2.135182388971725</v>
+        <v>2.159401302909501</v>
       </c>
       <c r="D18">
-        <v>0.1925888597216591</v>
+        <v>0.842878685929987</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>2.135182388971725</v>
+        <v>2.159401302909501</v>
       </c>
       <c r="H18">
-        <v>2.135182388971725</v>
+        <v>2.159401302909501</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1805,19 +1805,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>1.559995083934562</v>
+        <v>2.159401302909501</v>
       </c>
       <c r="D19">
-        <v>0.2333699971195003</v>
+        <v>0.6375934673723826</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>1.559995083934562</v>
+        <v>2.159401302909501</v>
+      </c>
+      <c r="H19">
+        <v>2.159401302909501</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1826,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1837,13 +1840,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
+      </c>
+      <c r="C20">
+        <v>2.497215</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.497215</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1860,7 +1872,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1931,22 +1943,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.892401615312579</v>
+        <v>0.9129613828818268</v>
       </c>
       <c r="D2">
-        <v>0.4459656585061642</v>
+        <v>0.3743383639972976</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>527</v>
       </c>
       <c r="G2">
-        <v>0.892401615312579</v>
+        <v>0.9129613828818268</v>
       </c>
       <c r="H2">
-        <v>0.892401615312579</v>
+        <v>0.9129613828818268</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1966,22 +1978,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.892401615312579</v>
+        <v>0.9129613828818268</v>
       </c>
       <c r="D3">
-        <v>0.3105344777319309</v>
+        <v>0.3302846514414224</v>
       </c>
       <c r="E3">
-        <v>96</v>
+        <v>1869</v>
       </c>
       <c r="G3">
-        <v>0.892401615312579</v>
+        <v>0.9129613828818268</v>
       </c>
       <c r="H3">
-        <v>0.892401615312579</v>
+        <v>0.9129613828818268</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2001,22 +2013,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.892401615312579</v>
+        <v>0.9190613988023711</v>
       </c>
       <c r="D4">
-        <v>0.2356702021859096</v>
+        <v>0.3369856403159682</v>
       </c>
       <c r="E4">
-        <v>123</v>
+        <v>3683</v>
       </c>
       <c r="G4">
-        <v>0.892401615312579</v>
+        <v>0.9190613988023711</v>
       </c>
       <c r="H4">
-        <v>0.892401615312579</v>
+        <v>0.9190613988023711</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2036,22 +2048,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>1.035617630373086</v>
+        <v>1.021467040126882</v>
       </c>
       <c r="D5">
-        <v>0.4059818940007633</v>
+        <v>0.37492317473006</v>
       </c>
       <c r="E5">
-        <v>195</v>
+        <v>5072</v>
       </c>
       <c r="G5">
-        <v>1.035617630373086</v>
+        <v>1.021467040126882</v>
       </c>
       <c r="H5">
-        <v>1.035617630373086</v>
+        <v>1.021467040126882</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2071,22 +2083,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>1.087683432413356</v>
+        <v>1.155107182314189</v>
       </c>
       <c r="D6">
-        <v>0.3767898178381823</v>
+        <v>0.4114827097752731</v>
       </c>
       <c r="E6">
-        <v>196</v>
+        <v>6512</v>
       </c>
       <c r="G6">
-        <v>1.087683432413356</v>
+        <v>1.155107182314189</v>
       </c>
       <c r="H6">
-        <v>1.087683432413356</v>
+        <v>1.155107182314189</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2106,22 +2118,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>1.168384634316259</v>
+        <v>1.283647268276591</v>
       </c>
       <c r="D7">
-        <v>0.450365287007338</v>
+        <v>0.4640082870377631</v>
       </c>
       <c r="E7">
-        <v>253</v>
+        <v>7145</v>
       </c>
       <c r="G7">
-        <v>1.168384634316259</v>
+        <v>1.283647268276591</v>
       </c>
       <c r="H7">
-        <v>1.168384634316259</v>
+        <v>1.283647268276591</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2141,22 +2153,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.192100804890781</v>
+        <v>1.423268164513286</v>
       </c>
       <c r="D8">
-        <v>0.4588800394909715</v>
+        <v>0.499105345922727</v>
       </c>
       <c r="E8">
-        <v>284</v>
+        <v>6516</v>
       </c>
       <c r="G8">
-        <v>1.192100804890781</v>
+        <v>1.423268164513286</v>
       </c>
       <c r="H8">
-        <v>1.192100804890781</v>
+        <v>1.423268164513286</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2176,22 +2188,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.431183221854915</v>
+        <v>1.477461692162377</v>
       </c>
       <c r="D9">
-        <v>0.5240813803338989</v>
+        <v>0.4793627525872298</v>
       </c>
       <c r="E9">
-        <v>281</v>
+        <v>5482</v>
       </c>
       <c r="G9">
-        <v>1.431183221854915</v>
+        <v>1.477461692162377</v>
       </c>
       <c r="H9">
-        <v>1.431183221854915</v>
+        <v>1.477461692162377</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2211,22 +2223,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.571678679169522</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="D10">
-        <v>0.5374264758496518</v>
+        <v>0.4278156830433366</v>
       </c>
       <c r="E10">
-        <v>233</v>
+        <v>4436</v>
       </c>
       <c r="G10">
-        <v>1.571678679169522</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="H10">
-        <v>1.571678679169522</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2246,22 +2258,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.571678679169522</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="D11">
-        <v>0.3893575566987687</v>
+        <v>0.3593270698081302</v>
       </c>
       <c r="E11">
-        <v>173</v>
+        <v>3221</v>
       </c>
       <c r="G11">
-        <v>1.571678679169522</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="H11">
-        <v>1.571678679169522</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2281,22 +2293,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.597637938885146</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="D12">
-        <v>0.4919264336994467</v>
+        <v>0.3575620226363393</v>
       </c>
       <c r="E12">
-        <v>148</v>
+        <v>2314</v>
       </c>
       <c r="G12">
-        <v>1.597637938885146</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="H12">
-        <v>1.597637938885146</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2316,22 +2328,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.597637938885146</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="D13">
-        <v>0.3764056914697734</v>
+        <v>0.3506691275800496</v>
       </c>
       <c r="E13">
-        <v>116</v>
+        <v>1251</v>
       </c>
       <c r="G13">
-        <v>1.597637938885146</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="H13">
-        <v>1.597637938885146</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2351,22 +2363,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.597637938885146</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="D14">
-        <v>0.4708345848739451</v>
+        <v>0.3313002941191875</v>
       </c>
       <c r="E14">
-        <v>101</v>
+        <v>696</v>
       </c>
       <c r="G14">
-        <v>1.597637938885146</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="H14">
-        <v>1.597637938885146</v>
+        <v>1.520333189450715</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2386,22 +2398,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.597637938885146</v>
+        <v>1.529895630411119</v>
       </c>
       <c r="D15">
-        <v>0.2479663845865344</v>
+        <v>0.3509747635602637</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>274</v>
       </c>
       <c r="G15">
-        <v>1.597637938885146</v>
+        <v>1.529895630411119</v>
       </c>
       <c r="H15">
-        <v>1.597637938885146</v>
+        <v>1.529895630411119</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2421,22 +2433,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>1.597637938885146</v>
+        <v>1.54955395043072</v>
       </c>
       <c r="D16">
-        <v>0.3196797565161457</v>
+        <v>0.3278261815914286</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="G16">
-        <v>1.597637938885146</v>
+        <v>1.54955395043072</v>
       </c>
       <c r="H16">
-        <v>1.597637938885146</v>
+        <v>1.54955395043072</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2456,22 +2468,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>1.597637938885146</v>
+        <v>1.653636803144522</v>
       </c>
       <c r="D17">
-        <v>0.2459884285829198</v>
+        <v>0.3983453390531584</v>
       </c>
       <c r="E17">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G17">
-        <v>1.597637938885146</v>
+        <v>1.653636803144522</v>
       </c>
       <c r="H17">
-        <v>1.597637938885146</v>
+        <v>1.653636803144522</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2491,22 +2503,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>1.597637938885146</v>
+        <v>1.791199897750109</v>
       </c>
       <c r="D18">
-        <v>0.0184841072876734</v>
+        <v>0.4643543389468493</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>1.597637938885146</v>
+        <v>1.791199897750109</v>
       </c>
       <c r="H18">
-        <v>1.597637938885146</v>
+        <v>1.791199897750109</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2526,22 +2538,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>1.597637938885146</v>
+        <v>2.074999945356927</v>
       </c>
       <c r="D19">
-        <v>0.0160767603148838</v>
+        <v>0.2419356048104536</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>1.597637938885146</v>
+        <v>2.074999945356927</v>
       </c>
       <c r="H19">
-        <v>1.597637938885146</v>
+        <v>2.074999945356927</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2561,22 +2573,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
+      </c>
+      <c r="C20">
+        <v>2.213295</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.213295</v>
+      </c>
+      <c r="H20">
+        <v>2.213295</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2584,22 +2608,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
+      </c>
+      <c r="C21">
+        <v>2.213295</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.213295</v>
+      </c>
+      <c r="H21">
+        <v>2.213295</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2655,22 +2691,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.7948296140245934</v>
+        <v>0.9780298299041481</v>
       </c>
       <c r="D2">
-        <v>0.3280657967875533</v>
+        <v>0.3915268988189841</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>915</v>
       </c>
       <c r="G2">
-        <v>0.7948296140245934</v>
+        <v>0.9780298299041481</v>
       </c>
       <c r="H2">
-        <v>0.7948296140245934</v>
+        <v>0.9780298299041481</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2690,22 +2726,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.9277623972330888</v>
+        <v>1.005379912816857</v>
       </c>
       <c r="D3">
-        <v>0.2600226970202093</v>
+        <v>0.388277452080823</v>
       </c>
       <c r="E3">
-        <v>108</v>
+        <v>3011</v>
       </c>
       <c r="G3">
-        <v>0.9277623972330888</v>
+        <v>1.005379912816857</v>
       </c>
       <c r="H3">
-        <v>0.9277623972330888</v>
+        <v>1.005379912816857</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2725,22 +2761,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>1.078571666345656</v>
+        <v>1.089283020534022</v>
       </c>
       <c r="D4">
-        <v>0.3537219775692496</v>
+        <v>0.398209609824546</v>
       </c>
       <c r="E4">
-        <v>216</v>
+        <v>5093</v>
       </c>
       <c r="G4">
-        <v>1.078571666345656</v>
+        <v>1.089283020534022</v>
       </c>
       <c r="H4">
-        <v>1.078571666345656</v>
+        <v>1.089283020534022</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2760,22 +2796,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>1.121576615615613</v>
+        <v>1.194742125786793</v>
       </c>
       <c r="D5">
-        <v>0.4001473917820902</v>
+        <v>0.4352822568358819</v>
       </c>
       <c r="E5">
-        <v>250</v>
+        <v>6852</v>
       </c>
       <c r="G5">
-        <v>1.121576615615613</v>
+        <v>1.194742125786793</v>
       </c>
       <c r="H5">
-        <v>1.121576615615613</v>
+        <v>1.194742125786793</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2795,22 +2831,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>1.297060621689623</v>
+        <v>1.324124007144819</v>
       </c>
       <c r="D6">
-        <v>0.4483787216580704</v>
+        <v>0.4796035356647063</v>
       </c>
       <c r="E6">
-        <v>346</v>
+        <v>8111</v>
       </c>
       <c r="G6">
-        <v>1.297060621689623</v>
+        <v>1.324124007144819</v>
       </c>
       <c r="H6">
-        <v>1.297060621689623</v>
+        <v>1.324124007144819</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2830,22 +2866,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>1.394444637503195</v>
+        <v>1.471905794929101</v>
       </c>
       <c r="D7">
-        <v>0.5270721523606943</v>
+        <v>0.5255370479266401</v>
       </c>
       <c r="E7">
-        <v>378</v>
+        <v>8458</v>
       </c>
       <c r="G7">
-        <v>1.394444637503195</v>
+        <v>1.471905794929101</v>
       </c>
       <c r="H7">
-        <v>1.394444637503195</v>
+        <v>1.471905794929101</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2865,22 +2901,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.630687715510579</v>
+        <v>1.620687707959221</v>
       </c>
       <c r="D8">
-        <v>0.6049429009138809</v>
+        <v>0.5689638672530388</v>
       </c>
       <c r="E8">
-        <v>317</v>
+        <v>7678</v>
       </c>
       <c r="G8">
-        <v>1.630687715510579</v>
+        <v>1.620687707959221</v>
       </c>
       <c r="H8">
-        <v>1.630687715510579</v>
+        <v>1.620687707959221</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2900,22 +2936,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.630687715510579</v>
+        <v>1.78086078048179</v>
       </c>
       <c r="D9">
-        <v>0.5624783980558049</v>
+        <v>0.5828525631940911</v>
       </c>
       <c r="E9">
-        <v>453</v>
+        <v>5853</v>
       </c>
       <c r="G9">
-        <v>1.630687715510579</v>
+        <v>1.78086078048179</v>
       </c>
       <c r="H9">
-        <v>1.630687715510579</v>
+        <v>1.78086078048179</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2935,22 +2971,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.767145129155188</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D10">
-        <v>0.5680664346169566</v>
+        <v>0.5427456327157227</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>4840</v>
       </c>
       <c r="G10">
-        <v>1.767145129155188</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H10">
-        <v>1.767145129155188</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2970,22 +3006,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D11">
-        <v>0.5697890583855562</v>
+        <v>0.4790638652829022</v>
       </c>
       <c r="E11">
-        <v>295</v>
+        <v>3485</v>
       </c>
       <c r="G11">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H11">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3005,22 +3041,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D12">
-        <v>0.501368065552057</v>
+        <v>0.3929252250846298</v>
       </c>
       <c r="E12">
-        <v>227</v>
+        <v>2442</v>
       </c>
       <c r="G12">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H12">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3040,22 +3076,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D13">
-        <v>0.5164360602440525</v>
+        <v>0.3643866250145765</v>
       </c>
       <c r="E13">
-        <v>159</v>
+        <v>1424</v>
       </c>
       <c r="G13">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H13">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3075,22 +3111,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D14">
-        <v>0.3442646732941061</v>
+        <v>0.3547265932511607</v>
       </c>
       <c r="E14">
-        <v>125</v>
+        <v>661</v>
       </c>
       <c r="G14">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H14">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3110,22 +3146,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D15">
-        <v>0.2789963421929141</v>
+        <v>0.4001577960056702</v>
       </c>
       <c r="E15">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="G15">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H15">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3145,22 +3181,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D16">
-        <v>0.3003858716933284</v>
+        <v>0.3495800056108901</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H16">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3180,22 +3216,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D17">
-        <v>0.389545847984112</v>
+        <v>0.3145165539595933</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="G17">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H17">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3215,22 +3251,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D18">
-        <v>0.3183004280065231</v>
+        <v>0.2451825015233641</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H18">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3250,22 +3286,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D19">
-        <v>0.3019983632222017</v>
+        <v>0.1364000000000001</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H19">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3285,22 +3321,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="C20">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="D20">
-        <v>0.09313963643369023</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="H20">
-        <v>1.790474264840061</v>
+        <v>1.815506000544693</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -3320,34 +3356,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
-      </c>
-      <c r="C21">
-        <v>1.790474264840061</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.790474264840061</v>
-      </c>
-      <c r="H21">
-        <v>1.790474264840061</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3403,22 +3427,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>1.392143635070636</v>
+        <v>1.189222126801639</v>
       </c>
       <c r="D2">
-        <v>0.462719640706979</v>
+        <v>0.4140131623637881</v>
       </c>
       <c r="E2">
-        <v>61</v>
+        <v>2216</v>
       </c>
       <c r="G2">
-        <v>1.392143635070636</v>
+        <v>1.189222126801639</v>
       </c>
       <c r="H2">
-        <v>1.392143635070636</v>
+        <v>1.189222126801639</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3438,22 +3462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>1.392143635070636</v>
+        <v>1.208259498804537</v>
       </c>
       <c r="D3">
-        <v>0.3835134227888805</v>
+        <v>0.4127427005758388</v>
       </c>
       <c r="E3">
-        <v>319</v>
+        <v>6795</v>
       </c>
       <c r="G3">
-        <v>1.392143635070636</v>
+        <v>1.208259498804537</v>
       </c>
       <c r="H3">
-        <v>1.392143635070636</v>
+        <v>1.208259498804537</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3473,22 +3497,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>1.392143635070636</v>
+        <v>1.276721068598631</v>
       </c>
       <c r="D4">
-        <v>0.3977139409595064</v>
+        <v>0.4275914464817613</v>
       </c>
       <c r="E4">
-        <v>444</v>
+        <v>10512</v>
       </c>
       <c r="G4">
-        <v>1.392143635070636</v>
+        <v>1.276721068598631</v>
       </c>
       <c r="H4">
-        <v>1.392143635070636</v>
+        <v>1.276721068598631</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3508,22 +3532,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>1.490074019685571</v>
+        <v>1.358951139279379</v>
       </c>
       <c r="D5">
-        <v>0.4944793415922208</v>
+        <v>0.4623315788821986</v>
       </c>
       <c r="E5">
-        <v>608</v>
+        <v>13284</v>
       </c>
       <c r="G5">
-        <v>1.490074019685571</v>
+        <v>1.358951139279379</v>
       </c>
       <c r="H5">
-        <v>1.490074019685571</v>
+        <v>1.358951139279379</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3543,22 +3567,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>1.50927717153454</v>
+        <v>1.508750558712105</v>
       </c>
       <c r="D6">
-        <v>0.5391064399597482</v>
+        <v>0.5117340944424189</v>
       </c>
       <c r="E6">
-        <v>690</v>
+        <v>13885</v>
       </c>
       <c r="G6">
-        <v>1.50927717153454</v>
+        <v>1.508750558712105</v>
       </c>
       <c r="H6">
-        <v>1.50927717153454</v>
+        <v>1.508750558712105</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3578,22 +3602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>1.594319073458384</v>
+        <v>1.682668159858925</v>
       </c>
       <c r="D7">
-        <v>0.552157137639822</v>
+        <v>0.5527057662180529</v>
       </c>
       <c r="E7">
-        <v>643</v>
+        <v>12965</v>
       </c>
       <c r="G7">
-        <v>1.594319073458384</v>
+        <v>1.682668159858925</v>
       </c>
       <c r="H7">
-        <v>1.594319073458384</v>
+        <v>1.682668159858925</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3613,22 +3637,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.786294929126834</v>
+        <v>1.881895948376039</v>
       </c>
       <c r="D8">
-        <v>0.5959254767978521</v>
+        <v>0.6097119476314006</v>
       </c>
       <c r="E8">
-        <v>627</v>
+        <v>10464</v>
       </c>
       <c r="G8">
-        <v>1.786294929126834</v>
+        <v>1.881895948376039</v>
       </c>
       <c r="H8">
-        <v>1.786294929126834</v>
+        <v>1.881895948376039</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3648,22 +3672,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.951817138721159</v>
+        <v>2.098023965198438</v>
       </c>
       <c r="D9">
-        <v>0.6252261043736729</v>
+        <v>0.6586002241959458</v>
       </c>
       <c r="E9">
-        <v>533</v>
+        <v>7167</v>
       </c>
       <c r="G9">
-        <v>1.951817138721159</v>
+        <v>2.098023965198438</v>
       </c>
       <c r="H9">
-        <v>1.951817138721159</v>
+        <v>2.098023965198438</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3683,22 +3707,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>2.053861102654884</v>
+        <v>2.218093262434379</v>
       </c>
       <c r="D10">
-        <v>0.6720304139544434</v>
+        <v>0.6862279559660915</v>
       </c>
       <c r="E10">
-        <v>451</v>
+        <v>5094</v>
       </c>
       <c r="G10">
-        <v>2.053861102654884</v>
+        <v>2.218093262434379</v>
       </c>
       <c r="H10">
-        <v>2.053861102654884</v>
+        <v>2.218093262434379</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -3718,22 +3742,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="D11">
-        <v>0.7708123300329183</v>
+        <v>0.6534273425473798</v>
       </c>
       <c r="E11">
-        <v>385</v>
+        <v>3121</v>
       </c>
       <c r="G11">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="H11">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3753,22 +3777,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="D12">
-        <v>0.7446873670331868</v>
+        <v>0.5509702955545086</v>
       </c>
       <c r="E12">
-        <v>263</v>
+        <v>1694</v>
       </c>
       <c r="G12">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="H12">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3788,22 +3812,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="D13">
-        <v>0.6438253434212913</v>
+        <v>0.4928073542739064</v>
       </c>
       <c r="E13">
-        <v>168</v>
+        <v>954</v>
       </c>
       <c r="G13">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="H13">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3823,22 +3847,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="D14">
-        <v>0.5618824043767923</v>
+        <v>0.4644774222309377</v>
       </c>
       <c r="E14">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="G14">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="H14">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3858,22 +3882,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="D15">
-        <v>0.4937346251746694</v>
+        <v>0.510636752297537</v>
       </c>
       <c r="E15">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="G15">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="H15">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3893,22 +3917,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="D16">
-        <v>0.4180485336656499</v>
+        <v>0.447242107108921</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G16">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="H16">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3928,22 +3952,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="D17">
-        <v>0.3536379003992154</v>
+        <v>0.410464895453923</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="H17">
-        <v>2.267724707176452</v>
+        <v>2.262638536397389</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3963,22 +3987,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>2.267724707176452</v>
+        <v>2.332805659155945</v>
       </c>
       <c r="D18">
-        <v>0.2578739102356943</v>
+        <v>0.3665109515416967</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>2.267724707176452</v>
+        <v>2.332805659155945</v>
       </c>
       <c r="H18">
-        <v>2.267724707176452</v>
+        <v>2.332805659155945</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3998,22 +4022,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>2.267724707176452</v>
+        <v>2.332805659155945</v>
       </c>
       <c r="D19">
-        <v>0.1067654542547458</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.267724707176452</v>
+        <v>2.332805659155945</v>
       </c>
       <c r="H19">
-        <v>2.267724707176452</v>
+        <v>2.332805659155945</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4033,7 +4057,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4056,7 +4080,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4127,22 +4151,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.9207216056812451</v>
+        <v>0.9435321650302435</v>
       </c>
       <c r="D2">
-        <v>0.2370249320347067</v>
+        <v>0.2938300546428138</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>1315</v>
       </c>
       <c r="G2">
-        <v>0.9207216056812451</v>
+        <v>0.9435321650302435</v>
       </c>
       <c r="H2">
-        <v>0.9207216056812451</v>
+        <v>0.9435321650302435</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4162,22 +4186,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.9207216056812451</v>
+        <v>0.9731864568363405</v>
       </c>
       <c r="D3">
-        <v>0.2461238144553994</v>
+        <v>0.3043260257626872</v>
       </c>
       <c r="E3">
-        <v>219</v>
+        <v>4353</v>
       </c>
       <c r="G3">
-        <v>0.9207216056812451</v>
+        <v>0.9731864568363405</v>
       </c>
       <c r="H3">
-        <v>0.9207216056812451</v>
+        <v>0.9731864568363405</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4197,22 +4221,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.9772767860553078</v>
+        <v>1.006264003797934</v>
       </c>
       <c r="D4">
-        <v>0.2473727641407388</v>
+        <v>0.3178416705589134</v>
       </c>
       <c r="E4">
-        <v>270</v>
+        <v>7605</v>
       </c>
       <c r="G4">
-        <v>0.9772767860553078</v>
+        <v>1.006264003797934</v>
       </c>
       <c r="H4">
-        <v>0.9772767860553078</v>
+        <v>1.006264003797934</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -4232,22 +4256,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>1.043332868646516</v>
+        <v>1.054865464476641</v>
       </c>
       <c r="D5">
-        <v>0.3496791093077352</v>
+        <v>0.3477258759663023</v>
       </c>
       <c r="E5">
-        <v>259</v>
+        <v>9567</v>
       </c>
       <c r="G5">
-        <v>1.043332868646516</v>
+        <v>1.054865464476641</v>
       </c>
       <c r="H5">
-        <v>1.043332868646516</v>
+        <v>1.054865464476641</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4267,22 +4291,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>1.099340442572092</v>
+        <v>1.156720462499178</v>
       </c>
       <c r="D6">
-        <v>0.388623542792408</v>
+        <v>0.3884264825023306</v>
       </c>
       <c r="E6">
-        <v>352</v>
+        <v>9439</v>
       </c>
       <c r="G6">
-        <v>1.099340442572092</v>
+        <v>1.156720462499178</v>
       </c>
       <c r="H6">
-        <v>1.099340442572092</v>
+        <v>1.156720462499178</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4302,22 +4326,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>1.180988112814453</v>
+        <v>1.309832609673671</v>
       </c>
       <c r="D7">
-        <v>0.39414171830121</v>
+        <v>0.4368381037417778</v>
       </c>
       <c r="E7">
-        <v>357</v>
+        <v>7301</v>
       </c>
       <c r="G7">
-        <v>1.180988112814453</v>
+        <v>1.309832609673671</v>
       </c>
       <c r="H7">
-        <v>1.180988112814453</v>
+        <v>1.309832609673671</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4337,22 +4361,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.259066833570829</v>
+        <v>1.453611650858111</v>
       </c>
       <c r="D8">
-        <v>0.4083115057941449</v>
+        <v>0.478271436287542</v>
       </c>
       <c r="E8">
-        <v>287</v>
+        <v>5278</v>
       </c>
       <c r="G8">
-        <v>1.259066833570829</v>
+        <v>1.453611650858111</v>
       </c>
       <c r="H8">
-        <v>1.259066833570829</v>
+        <v>1.453611650858111</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4372,22 +4396,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.322451785730972</v>
+        <v>1.60249072448415</v>
       </c>
       <c r="D9">
-        <v>0.4232758950023295</v>
+        <v>0.512552180681343</v>
       </c>
       <c r="E9">
-        <v>204</v>
+        <v>3446</v>
       </c>
       <c r="G9">
-        <v>1.322451785730972</v>
+        <v>1.60249072448415</v>
       </c>
       <c r="H9">
-        <v>1.322451785730972</v>
+        <v>1.60249072448415</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4407,22 +4431,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.338367884446341</v>
+        <v>1.707650272161239</v>
       </c>
       <c r="D10">
-        <v>0.4141549757054186</v>
+        <v>0.4838630192044666</v>
       </c>
       <c r="E10">
-        <v>154</v>
+        <v>2123</v>
       </c>
       <c r="G10">
-        <v>1.338367884446341</v>
+        <v>1.707650272161239</v>
       </c>
       <c r="H10">
-        <v>1.338367884446341</v>
+        <v>1.707650272161239</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4442,22 +4466,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.629747834411503</v>
+        <v>1.806852161791547</v>
       </c>
       <c r="D11">
-        <v>0.5714384442658967</v>
+        <v>0.4972328117709337</v>
       </c>
       <c r="E11">
-        <v>121</v>
+        <v>1361</v>
       </c>
       <c r="G11">
-        <v>1.629747834411503</v>
+        <v>1.806852161791547</v>
       </c>
       <c r="H11">
-        <v>1.629747834411503</v>
+        <v>1.806852161791547</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4477,22 +4501,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.845185682893924</v>
+        <v>1.929470040102663</v>
       </c>
       <c r="D12">
-        <v>0.5120372638048903</v>
+        <v>0.5314401034356131</v>
       </c>
       <c r="E12">
-        <v>118</v>
+        <v>851</v>
       </c>
       <c r="G12">
-        <v>1.845185682893924</v>
+        <v>1.929470040102663</v>
       </c>
       <c r="H12">
-        <v>1.845185682893924</v>
+        <v>1.929470040102663</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4512,22 +4536,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.961293315580101</v>
+        <v>1.929470040102663</v>
       </c>
       <c r="D13">
-        <v>0.475312133699391</v>
+        <v>0.4319028543923104</v>
       </c>
       <c r="E13">
-        <v>133</v>
+        <v>456</v>
       </c>
       <c r="G13">
-        <v>1.961293315580101</v>
+        <v>1.929470040102663</v>
       </c>
       <c r="H13">
-        <v>1.961293315580101</v>
+        <v>1.929470040102663</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4547,22 +4571,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>2.060446964829418</v>
+        <v>1.933275890762628</v>
       </c>
       <c r="D14">
-        <v>0.6779783920520203</v>
+        <v>0.4359824896786885</v>
       </c>
       <c r="E14">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="G14">
-        <v>2.060446964829418</v>
+        <v>1.933275890762628</v>
       </c>
       <c r="H14">
-        <v>2.060446964829418</v>
+        <v>1.933275890762628</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4582,22 +4606,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>2.060446964829418</v>
+        <v>1.934858384735592</v>
       </c>
       <c r="D15">
-        <v>0.5972822185290084</v>
+        <v>0.5004224725835653</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G15">
-        <v>2.060446964829418</v>
+        <v>1.934858384735592</v>
       </c>
       <c r="H15">
-        <v>2.060446964829418</v>
+        <v>1.934858384735592</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4617,22 +4641,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="D16">
-        <v>0.4061510513145719</v>
+        <v>0.4407374555472024</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G16">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="H16">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4652,22 +4676,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="D17">
-        <v>0.2521760825935548</v>
+        <v>0.2867485813391236</v>
       </c>
       <c r="E17">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="H17">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4687,22 +4711,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="D18">
-        <v>0.2331780601924247</v>
+        <v>0.219946544010635</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="H18">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4722,22 +4746,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="D19">
-        <v>0.1769384778644249</v>
+        <v>0.02975000000000005</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="H19">
-        <v>2.108529609654094</v>
+        <v>1.959279547119936</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4757,22 +4781,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
-      </c>
-      <c r="C20">
-        <v>1.955625</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.955625</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4789,7 +4804,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4860,22 +4875,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>1.02577953100442</v>
+        <v>0.7901597295204769</v>
       </c>
       <c r="D2">
-        <v>0.303291834291892</v>
+        <v>0.2565194127311446</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="G2">
-        <v>1.02577953100442</v>
+        <v>0.7901597295204769</v>
       </c>
       <c r="H2">
-        <v>1.02577953100442</v>
+        <v>0.7901597295204769</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4895,22 +4910,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>1.02577953100442</v>
+        <v>0.7901597295204769</v>
       </c>
       <c r="D3">
-        <v>0.2647559163916719</v>
+        <v>0.2486148526097285</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>1274</v>
       </c>
       <c r="G3">
-        <v>1.02577953100442</v>
+        <v>0.7901597295204769</v>
       </c>
       <c r="H3">
-        <v>1.02577953100442</v>
+        <v>0.7901597295204769</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4930,22 +4945,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>1.02577953100442</v>
+        <v>0.8184363773184078</v>
       </c>
       <c r="D4">
-        <v>0.2691889805794035</v>
+        <v>0.2468992563298636</v>
       </c>
       <c r="E4">
-        <v>103</v>
+        <v>2321</v>
       </c>
       <c r="G4">
-        <v>1.02577953100442</v>
+        <v>0.8184363773184078</v>
       </c>
       <c r="H4">
-        <v>1.02577953100442</v>
+        <v>0.8184363773184078</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -4965,22 +4980,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>1.02577953100442</v>
+        <v>0.850921847452618</v>
       </c>
       <c r="D5">
-        <v>0.2607532648622873</v>
+        <v>0.283507597056312</v>
       </c>
       <c r="E5">
-        <v>138</v>
+        <v>2883</v>
       </c>
       <c r="G5">
-        <v>1.02577953100442</v>
+        <v>0.850921847452618</v>
       </c>
       <c r="H5">
-        <v>1.02577953100442</v>
+        <v>0.850921847452618</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5000,22 +5015,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>1.02577953100442</v>
+        <v>0.9012814621578382</v>
       </c>
       <c r="D6">
-        <v>0.3399549218626956</v>
+        <v>0.3161380345350048</v>
       </c>
       <c r="E6">
-        <v>133</v>
+        <v>3191</v>
       </c>
       <c r="G6">
-        <v>1.02577953100442</v>
+        <v>0.9012814621578382</v>
       </c>
       <c r="H6">
-        <v>1.02577953100442</v>
+        <v>0.9012814621578382</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5035,22 +5050,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>1.02577953100442</v>
+        <v>0.9835219193517388</v>
       </c>
       <c r="D7">
-        <v>0.3385840563545043</v>
+        <v>0.3285220399245773</v>
       </c>
       <c r="E7">
-        <v>198</v>
+        <v>2964</v>
       </c>
       <c r="G7">
-        <v>1.02577953100442</v>
+        <v>0.9835219193517388</v>
       </c>
       <c r="H7">
-        <v>1.02577953100442</v>
+        <v>0.9835219193517388</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5070,22 +5085,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.02577953100442</v>
+        <v>1.018393032013286</v>
       </c>
       <c r="D8">
-        <v>0.3406325059729643</v>
+        <v>0.3081675133420837</v>
       </c>
       <c r="E8">
-        <v>168</v>
+        <v>2489</v>
       </c>
       <c r="G8">
-        <v>1.02577953100442</v>
+        <v>1.018393032013286</v>
       </c>
       <c r="H8">
-        <v>1.02577953100442</v>
+        <v>1.018393032013286</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5105,22 +5120,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.02577953100442</v>
+        <v>1.066154452807703</v>
       </c>
       <c r="D9">
-        <v>0.3045329799007129</v>
+        <v>0.3032617548697501</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>1525</v>
       </c>
       <c r="G9">
-        <v>1.02577953100442</v>
+        <v>1.066154452807703</v>
       </c>
       <c r="H9">
-        <v>1.02577953100442</v>
+        <v>1.066154452807703</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5140,22 +5155,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.061208473084019</v>
+        <v>1.165818007911995</v>
       </c>
       <c r="D10">
-        <v>0.3139240080366177</v>
+        <v>0.3202891351323535</v>
       </c>
       <c r="E10">
-        <v>127</v>
+        <v>994</v>
       </c>
       <c r="G10">
-        <v>1.061208473084019</v>
+        <v>1.165818007911995</v>
       </c>
       <c r="H10">
-        <v>1.061208473084019</v>
+        <v>1.165818007911995</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5175,22 +5190,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.1243606787193</v>
+        <v>1.220298803060001</v>
       </c>
       <c r="D11">
-        <v>0.3155243571066181</v>
+        <v>0.2840498917863303</v>
       </c>
       <c r="E11">
-        <v>126</v>
+        <v>682</v>
       </c>
       <c r="G11">
-        <v>1.1243606787193</v>
+        <v>1.220298803060001</v>
       </c>
       <c r="H11">
-        <v>1.1243606787193</v>
+        <v>1.220298803060001</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5210,22 +5225,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.21707884975742</v>
+        <v>1.220298803060001</v>
       </c>
       <c r="D12">
-        <v>0.3972914272137017</v>
+        <v>0.2926788954803353</v>
       </c>
       <c r="E12">
-        <v>64</v>
+        <v>449</v>
       </c>
       <c r="G12">
-        <v>1.21707884975742</v>
+        <v>1.220298803060001</v>
       </c>
       <c r="H12">
-        <v>1.21707884975742</v>
+        <v>1.220298803060001</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5245,22 +5260,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.21707884975742</v>
+        <v>1.220298803060001</v>
       </c>
       <c r="D13">
-        <v>0.2908707826755818</v>
+        <v>0.189659547979267</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="G13">
-        <v>1.21707884975742</v>
+        <v>1.220298803060001</v>
       </c>
       <c r="H13">
-        <v>1.21707884975742</v>
+        <v>1.220298803060001</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5280,22 +5295,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.21707884975742</v>
+        <v>1.233054743860872</v>
       </c>
       <c r="D14">
-        <v>0.2354544938219421</v>
+        <v>0.2584103929909329</v>
       </c>
       <c r="E14">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G14">
-        <v>1.21707884975742</v>
+        <v>1.233054743860872</v>
       </c>
       <c r="H14">
-        <v>1.21707884975742</v>
+        <v>1.233054743860872</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5315,22 +5330,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.217304470859889</v>
+        <v>1.233054743860872</v>
       </c>
       <c r="D15">
-        <v>0.1973066455792861</v>
+        <v>0.2102049595581355</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>1.217304470859889</v>
+        <v>1.233054743860872</v>
       </c>
       <c r="H15">
-        <v>1.217304470859889</v>
+        <v>1.233054743860872</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5350,22 +5365,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>1.305420812614997</v>
+        <v>1.233054743860872</v>
       </c>
       <c r="D16">
-        <v>0.2763769913111839</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.305420812614997</v>
+        <v>1.233054743860872</v>
       </c>
       <c r="H16">
-        <v>1.305420812614997</v>
+        <v>1.233054743860872</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5385,25 +5400,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
-      </c>
-      <c r="C17">
-        <v>1.654059413054743</v>
-      </c>
-      <c r="D17">
-        <v>0.2196936867549908</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>1.654059413054743</v>
-      </c>
-      <c r="H17">
-        <v>1.654059413054743</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -5420,7 +5423,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5432,10 +5435,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5443,7 +5446,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5455,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5466,13 +5469,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
+      </c>
+      <c r="C20">
+        <v>1.192275</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.192275</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5489,7 +5501,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5560,22 +5572,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.9943481679312584</v>
+        <v>0.6537950465675717</v>
       </c>
       <c r="D2">
-        <v>0.1290552412298272</v>
+        <v>0.2106801954860968</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="G2">
-        <v>0.9943481679312584</v>
+        <v>0.6537950465675717</v>
       </c>
       <c r="H2">
-        <v>0.9943481679312584</v>
+        <v>0.6537950465675717</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5595,22 +5607,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.9943481679312584</v>
+        <v>0.658152973959382</v>
       </c>
       <c r="D3">
-        <v>0.1994674903397129</v>
+        <v>0.2054439419874914</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>855</v>
       </c>
       <c r="G3">
-        <v>0.9943481679312584</v>
+        <v>0.658152973959382</v>
       </c>
       <c r="H3">
-        <v>0.9943481679312584</v>
+        <v>0.658152973959382</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5630,22 +5642,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.9943481679312584</v>
+        <v>0.7038267828569909</v>
       </c>
       <c r="D4">
-        <v>0.2700639449036166</v>
+        <v>0.2157994495461505</v>
       </c>
       <c r="E4">
-        <v>57</v>
+        <v>1566</v>
       </c>
       <c r="G4">
-        <v>0.9943481679312584</v>
+        <v>0.7038267828569909</v>
       </c>
       <c r="H4">
-        <v>0.9943481679312584</v>
+        <v>0.7038267828569909</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5665,22 +5677,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.9943481679312584</v>
+        <v>0.7492837928676248</v>
       </c>
       <c r="D5">
-        <v>0.1980231561097325</v>
+        <v>0.2523251311354746</v>
       </c>
       <c r="E5">
-        <v>97</v>
+        <v>2016</v>
       </c>
       <c r="G5">
-        <v>0.9943481679312584</v>
+        <v>0.7492837928676248</v>
       </c>
       <c r="H5">
-        <v>0.9943481679312584</v>
+        <v>0.7492837928676248</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5700,22 +5712,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.9943481679312584</v>
+        <v>0.7788490970767032</v>
       </c>
       <c r="D6">
-        <v>0.2395136408060115</v>
+        <v>0.2599637537729919</v>
       </c>
       <c r="E6">
-        <v>102</v>
+        <v>2618</v>
       </c>
       <c r="G6">
-        <v>0.9943481679312584</v>
+        <v>0.7788490970767032</v>
       </c>
       <c r="H6">
-        <v>0.9943481679312584</v>
+        <v>0.7788490970767032</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5735,22 +5747,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.9943481679312584</v>
+        <v>0.8073333620943914</v>
       </c>
       <c r="D7">
-        <v>0.2773979031880561</v>
+        <v>0.2566265578134713</v>
       </c>
       <c r="E7">
-        <v>132</v>
+        <v>2647</v>
       </c>
       <c r="G7">
-        <v>0.9943481679312584</v>
+        <v>0.8073333620943914</v>
       </c>
       <c r="H7">
-        <v>0.9943481679312584</v>
+        <v>0.8073333620943914</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5770,22 +5782,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.9943481679312584</v>
+        <v>0.8256543294135609</v>
       </c>
       <c r="D8">
-        <v>0.3105707210523093</v>
+        <v>0.2285425012651364</v>
       </c>
       <c r="E8">
-        <v>136</v>
+        <v>2535</v>
       </c>
       <c r="G8">
-        <v>0.9943481679312584</v>
+        <v>0.8256543294135609</v>
       </c>
       <c r="H8">
-        <v>0.9943481679312584</v>
+        <v>0.8256543294135609</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5805,22 +5817,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>0.9943481679312584</v>
+        <v>0.8677145340780209</v>
       </c>
       <c r="D9">
-        <v>0.2517684738379591</v>
+        <v>0.2397507266263103</v>
       </c>
       <c r="E9">
-        <v>128</v>
+        <v>1738</v>
       </c>
       <c r="G9">
-        <v>0.9943481679312584</v>
+        <v>0.8677145340780209</v>
       </c>
       <c r="H9">
-        <v>0.9943481679312584</v>
+        <v>0.8677145340780209</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5840,22 +5852,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>0.9943481679312584</v>
+        <v>0.9008505666043843</v>
       </c>
       <c r="D10">
-        <v>0.30682206718143</v>
+        <v>0.2234026121125172</v>
       </c>
       <c r="E10">
-        <v>144</v>
+        <v>1359</v>
       </c>
       <c r="G10">
-        <v>0.9943481679312584</v>
+        <v>0.9008505666043843</v>
       </c>
       <c r="H10">
-        <v>0.9943481679312584</v>
+        <v>0.9008505666043843</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5875,22 +5887,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.041580945375032</v>
+        <v>0.9086140209439406</v>
       </c>
       <c r="D11">
-        <v>0.3127832364750541</v>
+        <v>0.1975386013836378</v>
       </c>
       <c r="E11">
-        <v>68</v>
+        <v>1013</v>
       </c>
       <c r="G11">
-        <v>1.041580945375032</v>
+        <v>0.9086140209439406</v>
       </c>
       <c r="H11">
-        <v>1.041580945375032</v>
+        <v>0.9086140209439406</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5910,22 +5922,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.041580945375032</v>
+        <v>0.9260217365430424</v>
       </c>
       <c r="D12">
-        <v>0.2158159290678279</v>
+        <v>0.1709379952912769</v>
       </c>
       <c r="E12">
-        <v>96</v>
+        <v>606</v>
       </c>
       <c r="G12">
-        <v>1.041580945375032</v>
+        <v>0.9260217365430424</v>
       </c>
       <c r="H12">
-        <v>1.041580945375032</v>
+        <v>0.9260217365430424</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5945,22 +5957,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.041580945375032</v>
+        <v>0.9260217365430424</v>
       </c>
       <c r="D13">
-        <v>0.1596481205187996</v>
+        <v>0.1275237442817501</v>
       </c>
       <c r="E13">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="G13">
-        <v>1.041580945375032</v>
+        <v>0.9260217365430424</v>
       </c>
       <c r="H13">
-        <v>1.041580945375032</v>
+        <v>0.9260217365430424</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5980,22 +5992,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.041580945375032</v>
+        <v>0.976585824687211</v>
       </c>
       <c r="D14">
-        <v>0.1766759995660104</v>
+        <v>0.1463427616678304</v>
       </c>
       <c r="E14">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G14">
-        <v>1.041580945375032</v>
+        <v>0.976585824687211</v>
       </c>
       <c r="H14">
-        <v>1.041580945375032</v>
+        <v>0.976585824687211</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6015,22 +6027,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.041580945375032</v>
+        <v>0.976585824687211</v>
       </c>
       <c r="D15">
-        <v>0.09549987669987516</v>
+        <v>0.1131085635798724</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>1.041580945375032</v>
+        <v>0.976585824687211</v>
       </c>
       <c r="H15">
-        <v>1.041580945375032</v>
+        <v>0.976585824687211</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6050,22 +6062,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>1.041580945375032</v>
+        <v>1.185345</v>
       </c>
       <c r="D16">
-        <v>0.147775</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.041580945375032</v>
-      </c>
-      <c r="H16">
-        <v>1.041580945375032</v>
+        <v>1.185345</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6074,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6085,34 +6094,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
-      </c>
-      <c r="C17">
-        <v>1.247505</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.247505</v>
-      </c>
-      <c r="H17">
-        <v>1.247505</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6120,7 +6117,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -6143,7 +6140,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -6166,7 +6163,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -6189,7 +6186,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -6260,22 +6257,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.6373266652304374</v>
+        <v>0.6430602527877899</v>
       </c>
       <c r="D2">
-        <v>0.1117903838153365</v>
+        <v>0.2079204756841311</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="G2">
-        <v>0.6373266652304374</v>
+        <v>0.6430602527877899</v>
       </c>
       <c r="H2">
-        <v>0.6373266652304374</v>
+        <v>0.6430602527877899</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6295,22 +6292,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.6869099724181247</v>
+        <v>0.6576208737877752</v>
       </c>
       <c r="D3">
-        <v>0.2230898443795105</v>
+        <v>0.1915769284132175</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>740</v>
       </c>
       <c r="G3">
-        <v>0.6869099724181247</v>
+        <v>0.6576208737877752</v>
       </c>
       <c r="H3">
-        <v>0.6869099724181247</v>
+        <v>0.6576208737877752</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6330,22 +6327,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.6899767490745937</v>
+        <v>0.6743042189082858</v>
       </c>
       <c r="D4">
-        <v>0.1917410050764108</v>
+        <v>0.2040904606588151</v>
       </c>
       <c r="E4">
-        <v>67</v>
+        <v>1535</v>
       </c>
       <c r="G4">
-        <v>0.6899767490745937</v>
+        <v>0.6743042189082858</v>
       </c>
       <c r="H4">
-        <v>0.6899767490745937</v>
+        <v>0.6743042189082858</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6365,22 +6362,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.7035950879888395</v>
+        <v>0.7025859571491199</v>
       </c>
       <c r="D5">
-        <v>0.1842750908169145</v>
+        <v>0.2240227620050027</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>2291</v>
       </c>
       <c r="G5">
-        <v>0.7035950879888395</v>
+        <v>0.7025859571491199</v>
       </c>
       <c r="H5">
-        <v>0.7035950879888395</v>
+        <v>0.7025859571491199</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6400,22 +6397,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.7871779169466344</v>
+        <v>0.7379601205011784</v>
       </c>
       <c r="D6">
-        <v>0.2208281941716034</v>
+        <v>0.2423358437790051</v>
       </c>
       <c r="E6">
-        <v>117</v>
+        <v>2963</v>
       </c>
       <c r="G6">
-        <v>0.7871779169466344</v>
+        <v>0.7379601205011784</v>
       </c>
       <c r="H6">
-        <v>0.7871779169466344</v>
+        <v>0.7379601205011784</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6435,22 +6432,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7906811704357706</v>
+        <v>0.78175557676207</v>
       </c>
       <c r="D7">
-        <v>0.2340792452304441</v>
+        <v>0.2491191176540797</v>
       </c>
       <c r="E7">
-        <v>125</v>
+        <v>2964</v>
       </c>
       <c r="G7">
-        <v>0.7906811704357706</v>
+        <v>0.78175557676207</v>
       </c>
       <c r="H7">
-        <v>0.7906811704357706</v>
+        <v>0.78175557676207</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6470,22 +6467,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.8614201441997451</v>
+        <v>0.8069521980473231</v>
       </c>
       <c r="D8">
-        <v>0.2784214751328529</v>
+        <v>0.230446021925986</v>
       </c>
       <c r="E8">
-        <v>130</v>
+        <v>2830</v>
       </c>
       <c r="G8">
-        <v>0.8614201441997451</v>
+        <v>0.8069521980473231</v>
       </c>
       <c r="H8">
-        <v>0.8614201441997451</v>
+        <v>0.8069521980473231</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6505,22 +6502,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>0.8614201441997451</v>
+        <v>0.8530389391957465</v>
       </c>
       <c r="D9">
-        <v>0.2547304311282868</v>
+        <v>0.2454011399841705</v>
       </c>
       <c r="E9">
-        <v>159</v>
+        <v>1738</v>
       </c>
       <c r="G9">
-        <v>0.8614201441997451</v>
+        <v>0.8530389391957465</v>
       </c>
       <c r="H9">
-        <v>0.8614201441997451</v>
+        <v>0.8530389391957465</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6540,22 +6537,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>0.8614201441997451</v>
+        <v>0.9125232295879424</v>
       </c>
       <c r="D10">
-        <v>0.205319086845404</v>
+        <v>0.2363774965553372</v>
       </c>
       <c r="E10">
-        <v>178</v>
+        <v>1293</v>
       </c>
       <c r="G10">
-        <v>0.8614201441997451</v>
+        <v>0.9125232295879424</v>
       </c>
       <c r="H10">
-        <v>0.8614201441997451</v>
+        <v>0.9125232295879424</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6575,22 +6572,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.01202314894393</v>
+        <v>0.9374270301017623</v>
       </c>
       <c r="D11">
-        <v>0.2820359134770168</v>
+        <v>0.2461789755648575</v>
       </c>
       <c r="E11">
-        <v>71</v>
+        <v>704</v>
       </c>
       <c r="G11">
-        <v>1.01202314894393</v>
+        <v>0.9374270301017623</v>
       </c>
       <c r="H11">
-        <v>1.01202314894393</v>
+        <v>0.9374270301017623</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6610,22 +6607,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.01202314894393</v>
+        <v>0.9683823032623253</v>
       </c>
       <c r="D12">
-        <v>0.1833437248953124</v>
+        <v>0.2610059035382085</v>
       </c>
       <c r="E12">
-        <v>47</v>
+        <v>334</v>
       </c>
       <c r="G12">
-        <v>1.01202314894393</v>
+        <v>0.9683823032623253</v>
       </c>
       <c r="H12">
-        <v>1.01202314894393</v>
+        <v>0.9683823032623253</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6645,22 +6642,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.01202314894393</v>
+        <v>1.020476703464634</v>
       </c>
       <c r="D13">
-        <v>0.2919787012125472</v>
+        <v>0.3319351832358232</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="G13">
-        <v>1.01202314894393</v>
+        <v>1.020476703464634</v>
       </c>
       <c r="H13">
-        <v>1.01202314894393</v>
+        <v>1.020476703464634</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6680,22 +6677,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.01202314894393</v>
+        <v>1.193926845723976</v>
       </c>
       <c r="D14">
-        <v>0.3519380080511865</v>
+        <v>0.3423627603008663</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G14">
-        <v>1.01202314894393</v>
+        <v>1.193926845723976</v>
       </c>
       <c r="H14">
-        <v>1.01202314894393</v>
+        <v>1.193926845723976</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6715,22 +6712,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.01202314894393</v>
+        <v>1.307421979309354</v>
       </c>
       <c r="D15">
-        <v>0.0358202015060985</v>
+        <v>0.3326933309370658</v>
       </c>
       <c r="E15">
         <v>8</v>
       </c>
       <c r="G15">
-        <v>1.01202314894393</v>
+        <v>1.307421979309354</v>
       </c>
       <c r="H15">
-        <v>1.01202314894393</v>
+        <v>1.307421979309354</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6750,34 +6747,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
-      </c>
-      <c r="C16">
-        <v>1.01202314894393</v>
-      </c>
-      <c r="D16">
-        <v>0.1971469943619164</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="G16">
-        <v>1.01202314894393</v>
-      </c>
-      <c r="H16">
-        <v>1.01202314894393</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6785,22 +6770,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
-      </c>
-      <c r="C17">
-        <v>1.05567</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.05567</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -6817,7 +6793,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -6840,7 +6816,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -6863,7 +6839,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -6886,7 +6862,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -6957,22 +6933,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.744767852758529</v>
+        <v>0.626530519918623</v>
       </c>
       <c r="D2">
-        <v>0.0680171674211739</v>
+        <v>0.2226336010805692</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G2">
-        <v>0.744767852758529</v>
+        <v>0.626530519918623</v>
       </c>
       <c r="H2">
-        <v>0.744767852758529</v>
+        <v>0.626530519918623</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6992,22 +6968,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.7556496412187395</v>
+        <v>0.6726958463827873</v>
       </c>
       <c r="D3">
-        <v>0.216605024023222</v>
+        <v>0.2169846316993033</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>495</v>
       </c>
       <c r="G3">
-        <v>0.7556496412187395</v>
+        <v>0.6726958463827873</v>
       </c>
       <c r="H3">
-        <v>0.7556496412187395</v>
+        <v>0.6726958463827873</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -7027,22 +7003,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.7556496412187395</v>
+        <v>0.6726958463827873</v>
       </c>
       <c r="D4">
-        <v>0.1880009752332056</v>
+        <v>0.1947842099727349</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>1031</v>
       </c>
       <c r="G4">
-        <v>0.7556496412187395</v>
+        <v>0.6726958463827873</v>
       </c>
       <c r="H4">
-        <v>0.7556496412187395</v>
+        <v>0.6726958463827873</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -7062,22 +7038,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.7556496412187395</v>
+        <v>0.7048066561788338</v>
       </c>
       <c r="D5">
-        <v>0.1884785547148471</v>
+        <v>0.2409052360906328</v>
       </c>
       <c r="E5">
-        <v>69</v>
+        <v>1271</v>
       </c>
       <c r="G5">
-        <v>0.7556496412187395</v>
+        <v>0.7048066561788338</v>
       </c>
       <c r="H5">
-        <v>0.7556496412187395</v>
+        <v>0.7048066561788338</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7097,22 +7073,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.7556496412187395</v>
+        <v>0.7288478612395631</v>
       </c>
       <c r="D6">
-        <v>0.2719322795948068</v>
+        <v>0.2742353212932302</v>
       </c>
       <c r="E6">
-        <v>74</v>
+        <v>1354</v>
       </c>
       <c r="G6">
-        <v>0.7556496412187395</v>
+        <v>0.7288478612395631</v>
       </c>
       <c r="H6">
-        <v>0.7556496412187395</v>
+        <v>0.7288478612395631</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -7132,22 +7108,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7556496412187395</v>
+        <v>0.7864849775745248</v>
       </c>
       <c r="D7">
-        <v>0.2274375307103409</v>
+        <v>0.2712184823294374</v>
       </c>
       <c r="E7">
-        <v>54</v>
+        <v>1218</v>
       </c>
       <c r="G7">
-        <v>0.7556496412187395</v>
+        <v>0.7864849775745248</v>
       </c>
       <c r="H7">
-        <v>0.7556496412187395</v>
+        <v>0.7864849775745248</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -7167,22 +7143,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.7556496412187395</v>
+        <v>0.8157877936256012</v>
       </c>
       <c r="D8">
-        <v>0.1836791309452701</v>
+        <v>0.2662888051770713</v>
       </c>
       <c r="E8">
-        <v>68</v>
+        <v>920</v>
       </c>
       <c r="G8">
-        <v>0.7556496412187395</v>
+        <v>0.8157877936256012</v>
       </c>
       <c r="H8">
-        <v>0.7556496412187395</v>
+        <v>0.8157877936256012</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7202,22 +7178,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>0.7556496412187395</v>
+        <v>0.9057714905118962</v>
       </c>
       <c r="D9">
-        <v>0.1830874974768216</v>
+        <v>0.321624526037517</v>
       </c>
       <c r="E9">
-        <v>69</v>
+        <v>556</v>
       </c>
       <c r="G9">
-        <v>0.7556496412187395</v>
+        <v>0.9057714905118962</v>
       </c>
       <c r="H9">
-        <v>0.7556496412187395</v>
+        <v>0.9057714905118962</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -7237,22 +7213,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>0.9767772704244684</v>
+        <v>0.972857209353216</v>
       </c>
       <c r="D10">
-        <v>0.4327445050801724</v>
+        <v>0.3322325547084322</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="G10">
-        <v>0.9767772704244684</v>
+        <v>0.972857209353216</v>
       </c>
       <c r="H10">
-        <v>0.9767772704244684</v>
+        <v>0.972857209353216</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7272,22 +7248,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>0.9767772704244684</v>
+        <v>1.033840926628624</v>
       </c>
       <c r="D11">
-        <v>0.268438302941174</v>
+        <v>0.3455833848864092</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="G11">
-        <v>0.9767772704244684</v>
+        <v>1.033840926628624</v>
       </c>
       <c r="H11">
-        <v>0.9767772704244684</v>
+        <v>1.033840926628624</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7307,22 +7283,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.22302389605707</v>
+        <v>1.09681542904393</v>
       </c>
       <c r="D12">
-        <v>0.3672862374821401</v>
+        <v>0.3414087357013343</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="G12">
-        <v>1.22302389605707</v>
+        <v>1.09681542904393</v>
       </c>
       <c r="H12">
-        <v>1.22302389605707</v>
+        <v>1.09681542904393</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -7342,22 +7318,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.22302389605707</v>
+        <v>1.116545414713112</v>
       </c>
       <c r="D13">
-        <v>0.2878600000000001</v>
+        <v>0.3124423385086112</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="G13">
-        <v>1.22302389605707</v>
+        <v>1.116545414713112</v>
       </c>
       <c r="H13">
-        <v>1.22302389605707</v>
+        <v>1.116545414713112</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -7377,22 +7353,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.236884977131817</v>
+        <v>1.116545414713112</v>
       </c>
       <c r="D14">
-        <v>0.4752898565349359</v>
+        <v>0.3015303322822137</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>1.236884977131817</v>
+        <v>1.116545414713112</v>
       </c>
       <c r="H14">
-        <v>1.236884977131817</v>
+        <v>1.116545414713112</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -7412,22 +7388,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.236884977131817</v>
+        <v>1.116545414713112</v>
       </c>
       <c r="D15">
-        <v>0.3071416092872399</v>
+        <v>0.171310954302403</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>1.236884977131817</v>
+        <v>1.116545414713112</v>
       </c>
       <c r="H15">
-        <v>1.236884977131817</v>
+        <v>1.116545414713112</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -7447,25 +7423,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
-      </c>
-      <c r="C16">
-        <v>1.419495</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.419495</v>
-      </c>
-      <c r="H16">
-        <v>1.419495</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -7482,25 +7446,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
-      </c>
-      <c r="C17">
-        <v>1.44207</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.44207</v>
-      </c>
-      <c r="H17">
-        <v>1.44207</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -7517,31 +7469,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
-      </c>
-      <c r="C18">
-        <v>1.11489</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.11489</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -7549,22 +7492,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
+      </c>
+      <c r="C19">
+        <v>1.116545414713112</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.116545414713112</v>
+      </c>
+      <c r="H19">
+        <v>1.116545414713112</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7572,7 +7527,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -7595,7 +7550,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -7666,22 +7621,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="D2">
-        <v>0.179754312465654</v>
+        <v>0.2595680629611196</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="H2">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -7701,22 +7656,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="D3">
-        <v>0.2465786711666391</v>
+        <v>0.1641391615102572</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>337</v>
       </c>
       <c r="G3">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="H3">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -7736,22 +7691,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="D4">
-        <v>0.1631648919722637</v>
+        <v>0.2143592334833828</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>544</v>
       </c>
       <c r="G4">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="H4">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -7771,22 +7726,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="D5">
-        <v>0.174863739213016</v>
+        <v>0.2583576986561021</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>670</v>
       </c>
       <c r="G5">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="H5">
-        <v>1.06090767809427</v>
+        <v>0.7365340288761953</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7806,22 +7761,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>1.06090767809427</v>
+        <v>0.7998231550051834</v>
       </c>
       <c r="D6">
-        <v>0.225722435249644</v>
+        <v>0.3034651980520138</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>592</v>
       </c>
       <c r="G6">
-        <v>1.06090767809427</v>
+        <v>0.7998231550051834</v>
       </c>
       <c r="H6">
-        <v>1.06090767809427</v>
+        <v>0.7998231550051834</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -7841,22 +7796,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>1.06090767809427</v>
+        <v>0.8441306915462636</v>
       </c>
       <c r="D7">
-        <v>0.4098071705822632</v>
+        <v>0.3078140827223828</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>585</v>
       </c>
       <c r="G7">
-        <v>1.06090767809427</v>
+        <v>0.8441306915462636</v>
       </c>
       <c r="H7">
-        <v>1.06090767809427</v>
+        <v>0.8441306915462636</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -7876,22 +7831,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.06090767809427</v>
+        <v>0.897549124263362</v>
       </c>
       <c r="D8">
-        <v>0.469344136684153</v>
+        <v>0.2879459963680476</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>436</v>
       </c>
       <c r="G8">
-        <v>1.06090767809427</v>
+        <v>0.897549124263362</v>
       </c>
       <c r="H8">
-        <v>1.06090767809427</v>
+        <v>0.897549124263362</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7911,22 +7866,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.06090767809427</v>
+        <v>1.063309911795924</v>
       </c>
       <c r="D9">
-        <v>0.2415905200785758</v>
+        <v>0.392319535078413</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="G9">
-        <v>1.06090767809427</v>
+        <v>1.063309911795924</v>
       </c>
       <c r="H9">
-        <v>1.06090767809427</v>
+        <v>1.063309911795924</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -7946,22 +7901,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.06090767809427</v>
+        <v>1.127543495529008</v>
       </c>
       <c r="D10">
-        <v>0.5125729960589896</v>
+        <v>0.3926368929499253</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="G10">
-        <v>1.06090767809427</v>
+        <v>1.127543495529008</v>
       </c>
       <c r="H10">
-        <v>1.06090767809427</v>
+        <v>1.127543495529008</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7981,22 +7936,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.417851124723079</v>
+        <v>1.178257215895791</v>
       </c>
       <c r="D11">
-        <v>0.4288593136187566</v>
+        <v>0.373292527877774</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="G11">
-        <v>1.417851124723079</v>
+        <v>1.178257215895791</v>
       </c>
       <c r="H11">
-        <v>1.417851124723079</v>
+        <v>1.178257215895791</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -8016,22 +7971,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="D12">
-        <v>0.5215566587668112</v>
+        <v>0.4424983233452475</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G12">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="H12">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -8051,22 +8006,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.321459216021158</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="H13">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -8086,22 +8041,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3996580993391227</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="H14">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -8121,22 +8076,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="D15">
-        <v>0.2941914945554171</v>
+        <v>0.315963403171554</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="H15">
-        <v>1.563475280869144</v>
+        <v>1.400975347887865</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -8156,22 +8111,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>1.563475280869144</v>
+        <v>1.561880323779162</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3032629849743544</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>1.563475280869144</v>
+        <v>1.561880323779162</v>
       </c>
       <c r="H16">
-        <v>1.563475280869144</v>
+        <v>1.561880323779162</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -8191,25 +8146,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
-      </c>
-      <c r="C17">
-        <v>1.563475280869144</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.563475280869144</v>
-      </c>
-      <c r="H17">
-        <v>1.563475280869144</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -8226,13 +8169,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
+      </c>
+      <c r="C18">
+        <v>1.874985</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.874985</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -8249,7 +8201,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -8272,7 +8224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -8295,7 +8247,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -8366,22 +8318,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.7482447626122252</v>
+        <v>0.586753223664813</v>
       </c>
       <c r="D2">
-        <v>0.3698727297966453</v>
+        <v>0.1922687055781345</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>0.7482447626122252</v>
+        <v>0.586753223664813</v>
       </c>
       <c r="H2">
-        <v>0.7482447626122252</v>
+        <v>0.586753223664813</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -8401,22 +8353,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.7482447626122252</v>
+        <v>0.6527108272344031</v>
       </c>
       <c r="D3">
-        <v>0.3438486397362036</v>
+        <v>0.1888372800326278</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="G3">
-        <v>0.7482447626122252</v>
+        <v>0.6527108272344031</v>
       </c>
       <c r="H3">
-        <v>0.7482447626122252</v>
+        <v>0.6527108272344031</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -8436,22 +8388,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.7482447626122252</v>
+        <v>0.7107649046481014</v>
       </c>
       <c r="D4">
-        <v>0.2546578368169193</v>
+        <v>0.2079621548135992</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>627</v>
       </c>
       <c r="G4">
-        <v>0.7482447626122252</v>
+        <v>0.7107649046481014</v>
       </c>
       <c r="H4">
-        <v>0.7482447626122252</v>
+        <v>0.7107649046481014</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -8471,22 +8423,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.7482447626122252</v>
+        <v>0.7809831553537883</v>
       </c>
       <c r="D5">
-        <v>0.3104941042559197</v>
+        <v>0.2835242645536166</v>
       </c>
       <c r="E5">
-        <v>44</v>
+        <v>695</v>
       </c>
       <c r="G5">
-        <v>0.7482447626122252</v>
+        <v>0.7809831553537883</v>
       </c>
       <c r="H5">
-        <v>0.7482447626122252</v>
+        <v>0.7809831553537883</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -8506,22 +8458,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.7678962121545139</v>
+        <v>0.8686608776584771</v>
       </c>
       <c r="D6">
-        <v>0.247933443228625</v>
+        <v>0.3485063503240847</v>
       </c>
       <c r="E6">
-        <v>42</v>
+        <v>655</v>
       </c>
       <c r="G6">
-        <v>0.7678962121545139</v>
+        <v>0.8686608776584771</v>
       </c>
       <c r="H6">
-        <v>0.7678962121545139</v>
+        <v>0.8686608776584771</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -8541,22 +8493,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>1.025107891382707</v>
+        <v>0.9256379455037609</v>
       </c>
       <c r="D7">
-        <v>0.4763123325963195</v>
+        <v>0.3548165825300018</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>687</v>
       </c>
       <c r="G7">
-        <v>1.025107891382707</v>
+        <v>0.9256379455037609</v>
       </c>
       <c r="H7">
-        <v>1.025107891382707</v>
+        <v>0.9256379455037609</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -8576,22 +8528,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.025107891382707</v>
+        <v>0.9982268152420321</v>
       </c>
       <c r="D8">
-        <v>0.3571308433464314</v>
+        <v>0.3740430856486753</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>546</v>
       </c>
       <c r="G8">
-        <v>1.025107891382707</v>
+        <v>0.9982268152420321</v>
       </c>
       <c r="H8">
-        <v>1.025107891382707</v>
+        <v>0.9982268152420321</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -8611,22 +8563,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.025107891382707</v>
+        <v>1.124979417472201</v>
       </c>
       <c r="D9">
-        <v>0.2642496515186621</v>
+        <v>0.3964618159709518</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>381</v>
       </c>
       <c r="G9">
-        <v>1.025107891382707</v>
+        <v>1.124979417472201</v>
       </c>
       <c r="H9">
-        <v>1.025107891382707</v>
+        <v>1.124979417472201</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -8646,22 +8598,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.089257924380985</v>
+        <v>1.187896998502399</v>
       </c>
       <c r="D10">
-        <v>0.275140174399514</v>
+        <v>0.3814595499439776</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="G10">
-        <v>1.089257924380985</v>
+        <v>1.187896998502399</v>
       </c>
       <c r="H10">
-        <v>1.089257924380985</v>
+        <v>1.187896998502399</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -8681,22 +8633,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.218155240542231</v>
+        <v>1.277344742751634</v>
       </c>
       <c r="D11">
-        <v>0.4909732554042248</v>
+        <v>0.3981864141559296</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="G11">
-        <v>1.218155240542231</v>
+        <v>1.277344742751634</v>
       </c>
       <c r="H11">
-        <v>1.218155240542231</v>
+        <v>1.277344742751634</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -8716,22 +8668,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.429094926101307</v>
+        <v>1.35476106978536</v>
       </c>
       <c r="D12">
-        <v>0.2904513234605758</v>
+        <v>0.3573106980155556</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="G12">
-        <v>1.429094926101307</v>
+        <v>1.35476106978536</v>
       </c>
       <c r="H12">
-        <v>1.429094926101307</v>
+        <v>1.35476106978536</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -8751,22 +8703,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.444918909652405</v>
+        <v>1.35476106978536</v>
       </c>
       <c r="D13">
-        <v>0.3727863564719042</v>
+        <v>0.31988045914829</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="G13">
-        <v>1.444918909652405</v>
+        <v>1.35476106978536</v>
       </c>
       <c r="H13">
-        <v>1.444918909652405</v>
+        <v>1.35476106978536</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -8786,22 +8738,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="D14">
-        <v>0.4267317956848745</v>
+        <v>0.3656048701149862</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="G14">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="H14">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -8821,22 +8773,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="D15">
-        <v>0.30992</v>
+        <v>0.2472663991690434</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G15">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="H15">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -8856,22 +8808,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="D16">
-        <v>0.08835503833964424</v>
+        <v>0.2529146165097831</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="H16">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -8891,22 +8843,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.2239772706722219</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="H17">
-        <v>1.444918909652405</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -8926,19 +8878,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>0.9906225000000001</v>
+        <v>1.394910541838639</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2595258946309597</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>0.9906225000000001</v>
+        <v>1.394910541838639</v>
+      </c>
+      <c r="H18">
+        <v>1.394910541838639</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -8947,10 +8902,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8958,22 +8913,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
+      </c>
+      <c r="C19">
+        <v>1.394910541838639</v>
+      </c>
+      <c r="D19">
+        <v>0.3551627082660244</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>1.394910541838639</v>
+      </c>
+      <c r="H19">
+        <v>1.394910541838639</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8981,22 +8948,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
+      </c>
+      <c r="C20">
+        <v>1.394910541838639</v>
+      </c>
+      <c r="D20">
+        <v>0.0008499999999999064</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1.394910541838639</v>
+      </c>
+      <c r="H20">
+        <v>1.394910541838639</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -9004,22 +8983,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
+      </c>
+      <c r="C21">
+        <v>1.394910541838639</v>
+      </c>
+      <c r="D21">
+        <v>0.07574718124568511</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>1.394910541838639</v>
+      </c>
+      <c r="H21">
+        <v>1.394910541838639</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9075,22 +9066,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.5698674285652432</v>
+        <v>0.7308284195390016</v>
       </c>
       <c r="D2">
-        <v>0.1662758935286472</v>
+        <v>0.2632819408506046</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="G2">
-        <v>0.5698674285652432</v>
+        <v>0.7308284195390016</v>
       </c>
       <c r="H2">
-        <v>0.5698674285652432</v>
+        <v>0.7308284195390016</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -9110,22 +9101,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.7895713419849247</v>
+        <v>0.7308284195390016</v>
       </c>
       <c r="D3">
-        <v>0.3665221051307681</v>
+        <v>0.2090073869636615</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>650</v>
       </c>
       <c r="G3">
-        <v>0.7895713419849247</v>
+        <v>0.7308284195390016</v>
       </c>
       <c r="H3">
-        <v>0.7895713419849247</v>
+        <v>0.7308284195390016</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9145,22 +9136,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.7895713419849247</v>
+        <v>0.7715090205648749</v>
       </c>
       <c r="D4">
-        <v>0.2345815447090627</v>
+        <v>0.2516040713818112</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>1387</v>
       </c>
       <c r="G4">
-        <v>0.7895713419849247</v>
+        <v>0.7715090205648749</v>
       </c>
       <c r="H4">
-        <v>0.7895713419849247</v>
+        <v>0.7715090205648749</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9180,22 +9171,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.7895713419849247</v>
+        <v>0.8668691225476056</v>
       </c>
       <c r="D5">
-        <v>0.3127415500942531</v>
+        <v>0.3188660705941578</v>
       </c>
       <c r="E5">
-        <v>119</v>
+        <v>1744</v>
       </c>
       <c r="G5">
-        <v>0.7895713419849247</v>
+        <v>0.8668691225476056</v>
       </c>
       <c r="H5">
-        <v>0.7895713419849247</v>
+        <v>0.8668691225476056</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -9215,22 +9206,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.9758405016682459</v>
+        <v>0.9759570821175027</v>
       </c>
       <c r="D6">
-        <v>0.3966457556026383</v>
+        <v>0.3670571417556194</v>
       </c>
       <c r="E6">
-        <v>86</v>
+        <v>2173</v>
       </c>
       <c r="G6">
-        <v>0.9758405016682459</v>
+        <v>0.9759570821175027</v>
       </c>
       <c r="H6">
-        <v>0.9758405016682459</v>
+        <v>0.9759570821175027</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -9250,22 +9241,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.9758405016682459</v>
+        <v>1.084985912392388</v>
       </c>
       <c r="D7">
-        <v>0.4039595619349972</v>
+        <v>0.4268947694713361</v>
       </c>
       <c r="E7">
-        <v>160</v>
+        <v>2151</v>
       </c>
       <c r="G7">
-        <v>0.9758405016682459</v>
+        <v>1.084985912392388</v>
       </c>
       <c r="H7">
-        <v>0.9758405016682459</v>
+        <v>1.084985912392388</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -9285,22 +9276,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.035752610969162</v>
+        <v>1.211859522449283</v>
       </c>
       <c r="D8">
-        <v>0.4404957948773138</v>
+        <v>0.4510042909167452</v>
       </c>
       <c r="E8">
-        <v>118</v>
+        <v>1888</v>
       </c>
       <c r="G8">
-        <v>1.035752610969162</v>
+        <v>1.211859522449283</v>
       </c>
       <c r="H8">
-        <v>1.035752610969162</v>
+        <v>1.211859522449283</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -9320,22 +9311,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.252402574349507</v>
+        <v>1.333191467458859</v>
       </c>
       <c r="D9">
-        <v>0.4849608724371585</v>
+        <v>0.5020408807373776</v>
       </c>
       <c r="E9">
-        <v>67</v>
+        <v>1280</v>
       </c>
       <c r="G9">
-        <v>1.252402574349507</v>
+        <v>1.333191467458859</v>
       </c>
       <c r="H9">
-        <v>1.252402574349507</v>
+        <v>1.333191467458859</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -9355,22 +9346,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.420518883928231</v>
+        <v>1.421342083631847</v>
       </c>
       <c r="D10">
-        <v>0.5863400528833161</v>
+        <v>0.4960527520131078</v>
       </c>
       <c r="E10">
-        <v>64</v>
+        <v>1040</v>
       </c>
       <c r="G10">
-        <v>1.420518883928231</v>
+        <v>1.421342083631847</v>
       </c>
       <c r="H10">
-        <v>1.420518883928231</v>
+        <v>1.421342083631847</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -9390,22 +9381,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.480282526312969</v>
+        <v>1.427934408518884</v>
       </c>
       <c r="D11">
-        <v>0.5523013708597323</v>
+        <v>0.4340733930692165</v>
       </c>
       <c r="E11">
-        <v>41</v>
+        <v>887</v>
       </c>
       <c r="G11">
-        <v>1.480282526312969</v>
+        <v>1.427934408518884</v>
       </c>
       <c r="H11">
-        <v>1.480282526312969</v>
+        <v>1.427934408518884</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -9425,22 +9416,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.480282526312969</v>
+        <v>1.427934408518884</v>
       </c>
       <c r="D12">
-        <v>0.4168029949500219</v>
+        <v>0.4033791343118503</v>
       </c>
       <c r="E12">
-        <v>34</v>
+        <v>534</v>
       </c>
       <c r="G12">
-        <v>1.480282526312969</v>
+        <v>1.427934408518884</v>
       </c>
       <c r="H12">
-        <v>1.480282526312969</v>
+        <v>1.427934408518884</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -9460,22 +9451,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>1.480282526312969</v>
+        <v>1.447326744986659</v>
       </c>
       <c r="D13">
-        <v>0.3833240074941768</v>
+        <v>0.4278292889840511</v>
       </c>
       <c r="E13">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>1.480282526312969</v>
+        <v>1.447326744986659</v>
       </c>
       <c r="H13">
-        <v>1.480282526312969</v>
+        <v>1.447326744986659</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -9495,22 +9486,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>1.480282526312969</v>
+        <v>1.492655910841427</v>
       </c>
       <c r="D14">
-        <v>0.4720217685393648</v>
+        <v>0.469593018453095</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="G14">
-        <v>1.480282526312969</v>
+        <v>1.492655910841427</v>
       </c>
       <c r="H14">
-        <v>1.480282526312969</v>
+        <v>1.492655910841427</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -9530,22 +9521,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>1.480282526312969</v>
+        <v>1.58134265261754</v>
       </c>
       <c r="D15">
-        <v>0.464824351840444</v>
+        <v>0.478716590753915</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G15">
-        <v>1.480282526312969</v>
+        <v>1.58134265261754</v>
       </c>
       <c r="H15">
-        <v>1.480282526312969</v>
+        <v>1.58134265261754</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -9565,22 +9556,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>1.480282526312969</v>
+        <v>1.664327258279183</v>
       </c>
       <c r="D16">
-        <v>0.416461841209972</v>
+        <v>0.6816252716642611</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="G16">
-        <v>1.480282526312969</v>
+        <v>1.664327258279183</v>
       </c>
       <c r="H16">
-        <v>1.480282526312969</v>
+        <v>1.664327258279183</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -9600,22 +9591,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>1.611332730504007</v>
+        <v>1.664327258279183</v>
       </c>
       <c r="D17">
-        <v>0.643131459907088</v>
+        <v>0.2251448324967731</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>1.611332730504007</v>
+        <v>1.664327258279183</v>
       </c>
       <c r="H17">
-        <v>1.611332730504007</v>
+        <v>1.664327258279183</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -9635,22 +9626,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>1.711332696031371</v>
+        <v>1.664327258279183</v>
       </c>
       <c r="D18">
-        <v>0.5860777371646189</v>
+        <v>0.3381775363102772</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>1.711332696031371</v>
+        <v>1.664327258279183</v>
       </c>
       <c r="H18">
-        <v>1.711332696031371</v>
+        <v>1.664327258279183</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -9670,22 +9661,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>1.711332696031371</v>
+        <v>1.956089942046377</v>
       </c>
       <c r="D19">
-        <v>0.1760092232431774</v>
+        <v>0.6772823135312351</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>1.711332696031371</v>
+        <v>1.956089942046377</v>
       </c>
       <c r="H19">
-        <v>1.711332696031371</v>
+        <v>1.956089942046377</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -9705,22 +9696,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
+      </c>
+      <c r="C20">
+        <v>1.956089942046377</v>
+      </c>
+      <c r="D20">
+        <v>0.3254045251682896</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>1.956089942046377</v>
+      </c>
+      <c r="H20">
+        <v>1.956089942046377</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -9728,7 +9731,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
